--- a/biology/Zoologie/Charançon_américain_du_prunier/Charançon_américain_du_prunier.xlsx
+++ b/biology/Zoologie/Charançon_américain_du_prunier/Charançon_américain_du_prunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_am%C3%A9ricain_du_prunier</t>
+          <t>Charançon_américain_du_prunier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conotrachelus nenuphar
 Le Charançon américain du prunier, ou Charançon de la prune (Conotrachelus nenuphar) est une espèce d'insectes coléoptères de la famille des Curculionidae originaire d'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_am%C3%A9ricain_du_prunier</t>
+          <t>Charançon_américain_du_prunier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce charançon est indigène des régions situées à l'est des montagnes Rocheuses aux États-Unis et au Canada. Il s'attaque à diverses espèces de plantes de la famille des Rosaceae, notamment les arbres fruitiers. Les dégâts causés aux cultures de pêches, prunes, pommes et cerises peuvent être très importants et aggravés par des attaques secondaires d'autres agents pathogènes.
-Inconnu dans l'Ancien Monde, il est classé comme organisme de quarantaine (liste A1) par l'Organisation européenne et méditerranéenne pour la protection des plantes (OEPP)[1].
+Inconnu dans l'Ancien Monde, il est classé comme organisme de quarantaine (liste A1) par l'Organisation européenne et méditerranéenne pour la protection des plantes (OEPP).
 </t>
         </is>
       </c>
